--- a/Viscosity/JP5_predicted.xlsx
+++ b/Viscosity/JP5_predicted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailsc-my.sharepoint.com/personal/matthew_burnett_sc_edu/Documents/Lab projects/QSPR/Physical-Property-Modeling-Using-NMR-Spectra-and-Functional-Group-Representation/Viscosity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7384F565-21BE-466A-9C96-3D9306CB256B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{7384F565-21BE-466A-9C96-3D9306CB256B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78412C85-7D6B-49D6-B0EA-F42B5C038C69}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="14235" xr2:uid="{B91DD8A8-E173-4FC6-B7D3-3FC5A845EEB8}"/>
+    <workbookView xWindow="2040" yWindow="7005" windowWidth="20370" windowHeight="10770" xr2:uid="{B91DD8A8-E173-4FC6-B7D3-3FC5A845EEB8}"/>
   </bookViews>
   <sheets>
     <sheet name="JP5_predicted" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Predicted T</t>
-  </si>
-  <si>
-    <t>Predicted V</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Exp T</t>
   </si>
   <si>
     <t>Exp V</t>
+  </si>
+  <si>
+    <t>NMR T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMR V </t>
+  </si>
+  <si>
+    <t>FG T</t>
+  </si>
+  <si>
+    <t>FG V</t>
   </si>
 </sst>
 </file>
@@ -622,7 +628,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12937438719997635"/>
+          <c:y val="0.11040704070407042"/>
+          <c:w val="0.80272436682336479"/>
+          <c:h val="0.80986460850809494"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -635,7 +651,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Predicted V</c:v>
+                  <c:v>NMR V </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2795,6 +2811,9 @@
               <c:f>JP5_predicted!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FG V</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2824,8 +2843,1058 @@
             <c:numRef>
               <c:f>JP5_predicted!$C$2:$C$351</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="350"/>
+                <c:pt idx="0">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>458</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>477</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>479</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>497</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>507</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>509</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>513</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>514</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>517</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>523</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>527</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>531</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>533</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>534</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>537</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>539</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>543</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>547</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>549</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>551</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>552</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>553</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>554</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>557</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>559</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>561</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>562</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>563</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>565</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>566</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>567</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>568</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>569</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>571</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>572</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>574</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>577</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>578</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>579</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>582</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>583</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>586</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>587</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>591</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>592</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>593</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>595</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>596</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>597</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>598</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>599</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2833,8 +3902,1058 @@
             <c:numRef>
               <c:f>JP5_predicted!$D$2:$D$351</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="350"/>
+                <c:pt idx="0">
+                  <c:v>2.6245102558533802</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5641501271038498</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.50564084847435</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.44891346049676</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3939019924231899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3405433155336399</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2887770044488298</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.23854520596884</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1897925149897199</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1424658570788302</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0965143773169301</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0518893350398502</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0085440041360898</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.96643357857835</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9255150828873899</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8857472872452601</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.8470906269929801</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.80950712626364</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.77296032551774</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.7374152127615301</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.7028381582428</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.6691968524307199</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.6364602470983101</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.6045984993368601</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.5735829183419201</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.5433859148198401</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.51398095287317</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.48534250423103</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.4574460046990301</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.4302678127100299</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.4037851698643999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.3779761633546801</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.3528196901754901</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.3282954230253501</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.30438377781248</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.2810658826813199</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.2583235484814399</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.236139240605</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.2144960521227</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.1933776781523899</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.1727683913979601</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.15265301879969</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.1330169192403501</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.1138459622544401</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.0951265076908401</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.0768453862817899</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.05898988107363</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.0415477096772701</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.0245070072982401</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.00785631050889</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.99158454172660004</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.97568099436436995</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.96013531862149604</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.94493750788394404</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.93007788570555106</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.91554709334264595</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.90133607781614999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.88743608047649103</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.87383862604795803</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.860535512130291</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.84751879913643802</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.83478080064646198</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.82231407415858204</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.81011141221928096</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.79816583391532903</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.78647057671138698</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.77501908861768598</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.76380502067303102</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.75282221972909003</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.74206472152261904</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.73152674402293205</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.72120268104249596</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.71108709609917697</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.70117471651914198</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.69146042777000505</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.68193926801425298</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.67260642287349603</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.66345722039449595</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.65448712620837701</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.64569173887481801</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.63706678540339001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.62860811694458996</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.62031170464344298</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.61217363564889404</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.60419010927249495</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.59635743329020896</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.58867202038143096</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.58113038469956801</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.57372913856882102</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.56646498930199696</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.55933473613446105</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.55233526726951099</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.54546355703070204</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.53871666311682997</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.53209172395545901</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.52558595615108405</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.51919665202417897</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.51292117723752395</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.50675696850640195</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.50070153138936202</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.49475243815641201</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.48890732573162998</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.48316389370731699</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.477519902426919</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.47197317113409298</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.46652157618536499</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.461163049323981</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.455895576012602</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.45071719382262398</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.44562599087799898</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.44062010435150001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.43569771901145998</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.43085706581712901</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.42609642056081298</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.42141410255508599</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.41680847336341198</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.41227793557256098</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.40782093160532701</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.40343594257204402</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.39912148715950801</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.394876120555954</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.39069843341077898</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.38658705082776301</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.38254063139060501</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.37855786621959298</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.37463747805833603</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.37077822038945701</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.366978876578263</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.36323825904337398</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.359555208453393</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.355928592948692</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.35235730738745002</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.34884027261509198</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.345376434756339</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.34196476452906399</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.33860425657923698</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.33529392883621401</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.33203282188768901</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.32881999837363501</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.32565454239860597</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.322535558961761</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.31946217340402799</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.31643353087183501</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.31344879579684598</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.31050715139118201</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.307607799157602</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.30474995841416103</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.30193286583286</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.29915577499183499</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.29641795594064102</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.29371869477819701</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.291057293243003</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.28843306831520099</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.28584535183012</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.28329349010293597</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.28077684356407501</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.27829478640502903</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.275846706234259</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.27343200374284299</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.271050092379583</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.26870039803526602</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.26638235873578198</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.26409542434384098</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.26183905626899801</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.25961272718574702</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.25741592075942599</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.25524813137968499</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.25310886390130199</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.25099763339209402</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.24891396488774001</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.24685739315327601</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.24482746245106901</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.242823726315083</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.24084574733123601</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.23889309692365801</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.236965355146697</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.23506211048247599</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.233182959643845</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.23132750738257801</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.22949536630263301</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.22768615667835701</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.22589950627746799</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.22413505018867499</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.222392430653822</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.220671296904388</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.21897130500224801</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.217292117684558</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.21563340421264399</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.21399484022477699</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.21237610759273501</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.21077689428203</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.20919689421569701</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.20763580714155799</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.20609333850283501</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.20456919931205</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.203063106028086</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.20157478043634899</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.20010394953192601</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.19865034540565801</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.197213705133054</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.19579377066595699</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.19439028872689601</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.19300301070603801</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.19163169256067999</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.190276094717202</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.188935981975419</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.18761112341526301</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.186301292305736</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.18500626601606801</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.18372582592901801</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.18245975735626699</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.181207849455848</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.17996989515154099</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.17874569105420801</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.177535037384984</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.17633773790031099</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.17515359981872999</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.17398243374941</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.17282405362235601</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.171678276620255</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.17054492311191999</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.169423816587283</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.16831478359390001</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.16721765367493699</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.16613225930858</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.16505843584884899</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.16399602146777401</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.162944857098896</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.16190478638205799</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.16087565560946099</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.15985731367293901</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.15884961201244299</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.15785240456567301</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.15686554771885999</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.15588890025865301</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.15492232332507699</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.153965680365552</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.15301883708993799</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.15208166142656901</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.151154023479281</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.150235795485371</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.149326851774498</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.14842706872848299</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.147536324741988</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.14665450018406501</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0.14578147736053501</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.14491714047718601</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.14406137560378099</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.14321407063883099</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.14237511527513699</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.14154440096607299</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0.140721820892592</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0.13990726993093899</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.13910064462105301</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.13830184313564101</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.13751076524991801</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0.13672731231197399</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>0.135951387213778</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>0.13518289436279199</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0.134421739654175</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>0.13366783044357999</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>0.13292107552051299</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>0.132181385082248</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>0.131448670708288</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>0.130722845335356</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>0.1300038232329</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>0.12929151997910601</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>0.128585852437407</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>0.12788673873347001</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>0.12719409823265801</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>0.12650785151795099</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>0.12582792036832099</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>0.12515422773753601</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>0.124486697733407</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>0.123825255597447</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>0.123169827684943</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>0.12252034144542701</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>0.121876725403538</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>0.121238909140276</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>0.120606823274618</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>0.11998039944550799</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>0.11935957029420501</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>0.118744269446975</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>0.11813443149813301</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>0.117529991993414</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>0.116930887413674</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>0.11633705515890901</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>0.115748433532585</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>0.115164961726284</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>0.11458657980463401</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>0.114013228690546</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>0.113444850150727</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>0.11288138678147799</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>0.112322781994765</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>0.11176898000456199</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>0.111219925813445</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>0.110675565199457</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>0.110135844703213</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>0.109600711615256</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>0.109070113963654</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>0.108544000501826</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>0.108022320696608</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>0.107505024716535</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>0.10699206342035</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>0.106483388345727</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>0.105978951698203</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>0.105478706340318</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>0.104982605780963</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>0.104490604164918</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>0.10400265626258801</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>0.10351871745992899</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>0.10303874374856301</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>0.10256269171606699</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>0.102090518536452</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>0.101622181960804</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>0.101157640308108</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>0.100696852456234</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>0.100239777833081</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>9.9786376407899294E-2</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>9.9336608682750099E-2</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>9.8890435684134206E-2</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>9.8447818954764593E-2</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>9.8008720545489106E-2</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>9.7573103007359205E-2</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>9.71409293838391E-2</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>9.6712163203155094E-2</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>9.6286768470782297E-2</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>9.5864709662062703E-2</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>9.5445951714957594E-2</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>9.5030460022925298E-2</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>9.4618200427926999E-2</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>9.4209139213555199E-2</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>9.3803243098282904E-2</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>9.3400479228831296E-2</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>9.3000815173654799E-2</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>9.2604218916538097E-2</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>9.2210658850306895E-2</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>9.1820103770646297E-2</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>9.1432522870027899E-2</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>9.1047885731741302E-2</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>9.0666162324029506E-2</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>9.0287322994324001E-2</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>8.9911338463582E-2</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>8.9538179820716796E-2</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>8.9167818517127601E-2</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>8.8800226361320303E-2</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>8.8435375513620296E-2</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>8.8073238480977298E-2</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>8.7713788111855304E-2</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>8.7356997591212002E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3719,16 +5838,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>464343</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>516109</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>148879</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>502443</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>554209</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>177454</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4075,33 +6194,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{439A9796-7DA6-451F-A06B-57EB946C22F9}">
   <dimension ref="A1:F351"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>250</v>
       </c>
       <c r="B2" s="1">
         <v>3.5820463717278099</v>
       </c>
+      <c r="C2" s="1">
+        <v>250</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.6245102558533802</v>
+      </c>
       <c r="E2" s="1">
         <v>288.14999999999901</v>
       </c>
@@ -4109,13 +6240,19 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>251</v>
       </c>
       <c r="B3" s="1">
         <v>3.4968865033465799</v>
       </c>
+      <c r="C3" s="1">
+        <v>251</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.5641501271038498</v>
+      </c>
       <c r="E3" s="1">
         <v>298.14999999999901</v>
       </c>
@@ -4123,13 +6260,19 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>252</v>
       </c>
       <c r="B4" s="1">
         <v>3.4144031927239502</v>
       </c>
+      <c r="C4" s="1">
+        <v>252</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.50564084847435</v>
+      </c>
       <c r="E4" s="1">
         <v>308.14999999999901</v>
       </c>
@@ -4137,13 +6280,19 @@
         <v>1.45999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>253</v>
       </c>
       <c r="B5" s="1">
         <v>3.3344946217756801</v>
       </c>
+      <c r="C5" s="1">
+        <v>253</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.44891346049676</v>
+      </c>
       <c r="E5" s="1">
         <v>318.14999999999901</v>
       </c>
@@ -4151,13 +6300,19 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>254</v>
       </c>
       <c r="B6" s="1">
         <v>3.2570634667362701</v>
       </c>
+      <c r="C6" s="1">
+        <v>254</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.3939019924231899</v>
+      </c>
       <c r="E6" s="1">
         <v>328.14999999999901</v>
       </c>
@@ -4165,13 +6320,19 @@
         <v>1.1399999999999899</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>255</v>
       </c>
       <c r="B7" s="1">
         <v>3.1820166738922202</v>
       </c>
+      <c r="C7" s="1">
+        <v>255</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.3405433155336399</v>
+      </c>
       <c r="E7" s="1">
         <v>338.14999999999901</v>
       </c>
@@ -4179,13 +6340,19 @@
         <v>0.97799999999999898</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>256</v>
       </c>
       <c r="B8" s="1">
         <v>3.1092652477409399</v>
       </c>
+      <c r="C8" s="1">
+        <v>256</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.2887770044488298</v>
+      </c>
       <c r="E8" s="1">
         <v>348.14999999999901</v>
       </c>
@@ -4193,2748 +6360,4806 @@
         <v>0.85299999999999898</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>257</v>
       </c>
       <c r="B9" s="1">
         <v>3.0387240508208602</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C9" s="1">
+        <v>257</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.23854520596884</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>258</v>
       </c>
       <c r="B10" s="1">
         <v>2.9703116145080601</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C10" s="1">
+        <v>258</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.1897925149897199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>259</v>
       </c>
       <c r="B11" s="1">
         <v>2.9039499601210301</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C11" s="1">
+        <v>259</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.1424658570788302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>260</v>
       </c>
       <c r="B12" s="1">
         <v>2.83956442971781</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C12" s="1">
+        <v>260</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.0965143773169301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>261</v>
       </c>
       <c r="B13" s="1">
         <v>2.7770835260098199</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C13" s="1">
+        <v>261</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2.0518893350398502</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>262</v>
       </c>
       <c r="B14" s="1">
         <v>2.7164387608538298</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C14" s="1">
+        <v>262</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.0085440041360898</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>263</v>
       </c>
       <c r="B15" s="1">
         <v>2.6575645118178302</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C15" s="1">
+        <v>263</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.96643357857835</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>264</v>
       </c>
       <c r="B16" s="1">
         <v>2.6003978863490498</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C16" s="1">
+        <v>264</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.9255150828873899</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>265</v>
       </c>
       <c r="B17" s="1">
         <v>2.5448785931020099</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C17" s="1">
+        <v>265</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.8857472872452601</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>266</v>
       </c>
       <c r="B18" s="1">
         <v>2.49094882001252</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C18" s="1">
+        <v>266</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.8470906269929801</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>267</v>
       </c>
       <c r="B19" s="1">
         <v>2.4385531187296601</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C19" s="1">
+        <v>267</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.80950712626364</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>268</v>
       </c>
       <c r="B20" s="1">
         <v>2.3876382950417101</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C20" s="1">
+        <v>268</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.77296032551774</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>269</v>
       </c>
       <c r="B21" s="1">
         <v>2.3381533049549499</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C21" s="1">
+        <v>269</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.7374152127615301</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>270</v>
       </c>
       <c r="B22" s="1">
         <v>2.2900491561051401</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C22" s="1">
+        <v>270</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.7028381582428</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>271</v>
       </c>
       <c r="B23" s="1">
         <v>2.2432788142012301</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C23" s="1">
+        <v>271</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1.6691968524307199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>272</v>
       </c>
       <c r="B24" s="1">
         <v>2.19779711421927</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C24" s="1">
+        <v>272</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.6364602470983101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>273</v>
       </c>
       <c r="B25" s="1">
         <v>2.1535606760816499</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C25" s="1">
+        <v>273</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1.6045984993368601</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>274</v>
       </c>
       <c r="B26" s="1">
         <v>2.1105278245728698</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C26" s="1">
+        <v>274</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1.5735829183419201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>275</v>
       </c>
       <c r="B27" s="1">
         <v>2.06865851325793</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C27" s="1">
+        <v>275</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1.5433859148198401</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>276</v>
       </c>
       <c r="B28" s="1">
         <v>2.02791425218365</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C28" s="1">
+        <v>276</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1.51398095287317</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>277</v>
       </c>
       <c r="B29" s="1">
         <v>1.9882580391561899</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C29" s="1">
+        <v>277</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1.48534250423103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>278</v>
       </c>
       <c r="B30" s="1">
         <v>1.9496542944004001</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C30" s="1">
+        <v>278</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1.4574460046990301</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>279</v>
       </c>
       <c r="B31" s="1">
         <v>1.91206879841803</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C31" s="1">
+        <v>279</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1.4302678127100299</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>280</v>
       </c>
       <c r="B32" s="1">
         <v>1.8754686328726999</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C32" s="1">
+        <v>280</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1.4037851698643999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>281</v>
       </c>
       <c r="B33" s="1">
         <v>1.83982212433961</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C33" s="1">
+        <v>281</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1.3779761633546801</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>282</v>
       </c>
       <c r="B34" s="1">
         <v>1.8050987907671701</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C34" s="1">
+        <v>282</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1.3528196901754901</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>283</v>
       </c>
       <c r="B35" s="1">
         <v>1.771269290507</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C35" s="1">
+        <v>283</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1.3282954230253501</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>284</v>
       </c>
       <c r="B36" s="1">
         <v>1.7383053737765499</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C36" s="1">
+        <v>284</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1.30438377781248</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>285</v>
       </c>
       <c r="B37" s="1">
         <v>1.7061798364268701</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C37" s="1">
+        <v>285</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1.2810658826813199</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>286</v>
       </c>
       <c r="B38" s="1">
         <v>1.6748664758948899</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C38" s="1">
+        <v>286</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1.2583235484814399</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>287</v>
       </c>
       <c r="B39" s="1">
         <v>1.6443400492268101</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C39" s="1">
+        <v>287</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1.236139240605</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>288</v>
       </c>
       <c r="B40" s="1">
         <v>1.61457623306529</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C40" s="1">
+        <v>288</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1.2144960521227</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>289</v>
       </c>
       <c r="B41" s="1">
         <v>1.5855515854994899</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C41" s="1">
+        <v>289</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1.1933776781523899</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>290</v>
       </c>
       <c r="B42" s="1">
         <v>1.5572435096823301</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C42" s="1">
+        <v>290</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1.1727683913979601</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>291</v>
       </c>
       <c r="B43" s="1">
         <v>1.529630219125</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C43" s="1">
+        <v>291</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1.15265301879969</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>292</v>
       </c>
       <c r="B44" s="1">
         <v>1.50269070458358</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C44" s="1">
+        <v>292</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1.1330169192403501</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>293</v>
       </c>
       <c r="B45" s="1">
         <v>1.47640470245718</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C45" s="1">
+        <v>293</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1.1138459622544401</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>294</v>
       </c>
       <c r="B46" s="1">
         <v>1.4507526646219</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C46" s="1">
+        <v>294</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1.0951265076908401</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>295</v>
       </c>
       <c r="B47" s="1">
         <v>1.4257157296284999</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C47" s="1">
+        <v>295</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1.0768453862817899</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>296</v>
       </c>
       <c r="B48" s="1">
         <v>1.4012756951960701</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C48" s="1">
+        <v>296</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1.05898988107363</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>297</v>
       </c>
       <c r="B49" s="1">
         <v>1.3774149919373</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C49" s="1">
+        <v>297</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1.0415477096772701</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>298</v>
       </c>
       <c r="B50" s="1">
         <v>1.3541166582547399</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C50" s="1">
+        <v>298</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1.0245070072982401</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>299</v>
       </c>
       <c r="B51" s="1">
         <v>1.33136431635046</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C51" s="1">
+        <v>299</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1.00785631050889</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>300</v>
       </c>
       <c r="B52" s="1">
         <v>1.30914214929467</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C52" s="1">
+        <v>300</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.99158454172660004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>301</v>
       </c>
       <c r="B53" s="1">
         <v>1.2874348791018799</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C53" s="1">
+        <v>301</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.97568099436436995</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>302</v>
       </c>
       <c r="B54" s="1">
         <v>1.2662277457657101</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C54" s="1">
+        <v>302</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.96013531862149604</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>303</v>
       </c>
       <c r="B55" s="1">
         <v>1.2455064872061401</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C55" s="1">
+        <v>303</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.94493750788394404</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>304</v>
       </c>
       <c r="B56" s="1">
         <v>1.2252573200855601</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C56" s="1">
+        <v>304</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.93007788570555106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>305</v>
       </c>
       <c r="B57" s="1">
         <v>1.2054669214518801</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C57" s="1">
+        <v>305</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0.91554709334264595</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>306</v>
       </c>
       <c r="B58" s="1">
         <v>1.1861224111695901</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C58" s="1">
+        <v>306</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.90133607781614999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>307</v>
       </c>
       <c r="B59" s="1">
         <v>1.16721133510134</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C59" s="1">
+        <v>307</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0.88743608047649103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>308</v>
       </c>
       <c r="B60" s="1">
         <v>1.1487216490047401</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C60" s="1">
+        <v>308</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0.87383862604795803</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>309</v>
       </c>
       <c r="B61" s="1">
         <v>1.13064170311078</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C61" s="1">
+        <v>309</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0.860535512130291</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>310</v>
       </c>
       <c r="B62" s="1">
         <v>1.11296022735208</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C62" s="1">
+        <v>310</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0.84751879913643802</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>311</v>
       </c>
       <c r="B63" s="1">
         <v>1.0956663172107199</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C63" s="1">
+        <v>311</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0.83478080064646198</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>312</v>
       </c>
       <c r="B64" s="1">
         <v>1.07874942015701</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C64" s="1">
+        <v>312</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0.82231407415858204</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>313</v>
       </c>
       <c r="B65" s="1">
         <v>1.06219932265193</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C65" s="1">
+        <v>313</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0.81011141221928096</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>314</v>
       </c>
       <c r="B66" s="1">
         <v>1.0460061376873799</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C66" s="1">
+        <v>314</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0.79816583391532903</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>315</v>
       </c>
       <c r="B67" s="1">
         <v>1.03016029283972</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C67" s="1">
+        <v>315</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0.78647057671138698</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>316</v>
       </c>
       <c r="B68" s="1">
         <v>1.0146525188131901</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C68" s="1">
+        <v>316</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0.77501908861768598</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>317</v>
       </c>
       <c r="B69" s="1">
         <v>0.99947383845110105</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C69" s="1">
+        <v>317</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0.76380502067303102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>318</v>
       </c>
       <c r="B70" s="1">
         <v>0.98461555619359498</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C70" s="1">
+        <v>318</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0.75282221972909003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>319</v>
       </c>
       <c r="B71" s="1">
         <v>0.97006924796209404</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C71" s="1">
+        <v>319</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0.74206472152261904</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>320</v>
       </c>
       <c r="B72" s="1">
         <v>0.95582675145121099</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C72" s="1">
+        <v>320</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0.73152674402293205</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>321</v>
       </c>
       <c r="B73" s="1">
         <v>0.94188015681005899</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C73" s="1">
+        <v>321</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0.72120268104249596</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>322</v>
       </c>
       <c r="B74" s="1">
         <v>0.928221797695712</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C74" s="1">
+        <v>322</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0.71108709609917697</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>323</v>
       </c>
       <c r="B75" s="1">
         <v>0.91484424268237696</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C75" s="1">
+        <v>323</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0.70117471651914198</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>324</v>
       </c>
       <c r="B76" s="1">
         <v>0.90174028701064002</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C76" s="1">
+        <v>324</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0.69146042777000505</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>325</v>
       </c>
       <c r="B77" s="1">
         <v>0.88890294466194197</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C77" s="1">
+        <v>325</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0.68193926801425298</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>326</v>
       </c>
       <c r="B78" s="1">
         <v>0.87632544074407803</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C78" s="1">
+        <v>326</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0.67260642287349603</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>327</v>
       </c>
       <c r="B79" s="1">
         <v>0.86400120417425097</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C79" s="1">
+        <v>327</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0.66345722039449595</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>328</v>
       </c>
       <c r="B80" s="1">
         <v>0.85192386064682302</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C80" s="1">
+        <v>328</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0.65448712620837701</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>329</v>
       </c>
       <c r="B81" s="1">
         <v>0.84008722587351004</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C81" s="1">
+        <v>329</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0.64569173887481801</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>330</v>
       </c>
       <c r="B82" s="1">
         <v>0.82848529908434798</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C82" s="1">
+        <v>330</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0.63706678540339001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>331</v>
       </c>
       <c r="B83" s="1">
         <v>0.817112256778327</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C83" s="1">
+        <v>331</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0.62860811694458996</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>332</v>
       </c>
       <c r="B84" s="1">
         <v>0.80596244671304995</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C84" s="1">
+        <v>332</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0.62031170464344298</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>333</v>
       </c>
       <c r="B85" s="1">
         <v>0.79503038212333799</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C85" s="1">
+        <v>333</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0.61217363564889404</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>334</v>
       </c>
       <c r="B86" s="1">
         <v>0.78431073615911395</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C86" s="1">
+        <v>334</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0.60419010927249495</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>335</v>
       </c>
       <c r="B87" s="1">
         <v>0.77379833653337904</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C87" s="1">
+        <v>335</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0.59635743329020896</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>336</v>
       </c>
       <c r="B88" s="1">
         <v>0.76348816037148104</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C88" s="1">
+        <v>336</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0.58867202038143096</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>337</v>
       </c>
       <c r="B89" s="1">
         <v>0.75337532925332495</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C89" s="1">
+        <v>337</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0.58113038469956801</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>338</v>
       </c>
       <c r="B90" s="1">
         <v>0.7434551044405</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C90" s="1">
+        <v>338</v>
+      </c>
+      <c r="D90" s="1">
+        <v>0.57372913856882102</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>339</v>
       </c>
       <c r="B91" s="1">
         <v>0.73372288228071403</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C91" s="1">
+        <v>339</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0.56646498930199696</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>340</v>
       </c>
       <c r="B92" s="1">
         <v>0.72417418978222503</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C92" s="1">
+        <v>340</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0.55933473613446105</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>341</v>
       </c>
       <c r="B93" s="1">
         <v>0.71480468035132405</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C93" s="1">
+        <v>341</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0.55233526726951099</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>342</v>
       </c>
       <c r="B94" s="1">
         <v>0.70561012968620596</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C94" s="1">
+        <v>342</v>
+      </c>
+      <c r="D94" s="1">
+        <v>0.54546355703070204</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>343</v>
       </c>
       <c r="B95" s="1">
         <v>0.69658643182088797</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C95" s="1">
+        <v>343</v>
+      </c>
+      <c r="D95" s="1">
+        <v>0.53871666311682997</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>344</v>
       </c>
       <c r="B96" s="1">
         <v>0.68772959531308997</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C96" s="1">
+        <v>344</v>
+      </c>
+      <c r="D96" s="1">
+        <v>0.53209172395545901</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>345</v>
       </c>
       <c r="B97" s="1">
         <v>0.67903573957029395</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C97" s="1">
+        <v>345</v>
+      </c>
+      <c r="D97" s="1">
+        <v>0.52558595615108405</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>346</v>
       </c>
       <c r="B98" s="1">
         <v>0.67050109130841495</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C98" s="1">
+        <v>346</v>
+      </c>
+      <c r="D98" s="1">
+        <v>0.51919665202417897</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>347</v>
       </c>
       <c r="B99" s="1">
         <v>0.66212198113779697</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C99" s="1">
+        <v>347</v>
+      </c>
+      <c r="D99" s="1">
+        <v>0.51292117723752395</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>348</v>
       </c>
       <c r="B100" s="1">
         <v>0.65389484027145905</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C100" s="1">
+        <v>348</v>
+      </c>
+      <c r="D100" s="1">
+        <v>0.50675696850640195</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>349</v>
       </c>
       <c r="B101" s="1">
         <v>0.64581619735073403</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C101" s="1">
+        <v>349</v>
+      </c>
+      <c r="D101" s="1">
+        <v>0.50070153138936202</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>350</v>
       </c>
       <c r="B102" s="1">
         <v>0.63788267538367305</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C102" s="1">
+        <v>350</v>
+      </c>
+      <c r="D102" s="1">
+        <v>0.49475243815641201</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>351</v>
       </c>
       <c r="B103" s="1">
         <v>0.63009098879177305</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C103" s="1">
+        <v>351</v>
+      </c>
+      <c r="D103" s="1">
+        <v>0.48890732573162998</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>352</v>
       </c>
       <c r="B104" s="1">
         <v>0.62243794056077095</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C104" s="1">
+        <v>352</v>
+      </c>
+      <c r="D104" s="1">
+        <v>0.48316389370731699</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>353</v>
       </c>
       <c r="B105" s="1">
         <v>0.61492041949146203</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C105" s="1">
+        <v>353</v>
+      </c>
+      <c r="D105" s="1">
+        <v>0.477519902426919</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>354</v>
       </c>
       <c r="B106" s="1">
         <v>0.607535397546624</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C106" s="1">
+        <v>354</v>
+      </c>
+      <c r="D106" s="1">
+        <v>0.47197317113409298</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>355</v>
       </c>
       <c r="B107" s="1">
         <v>0.60027992729033997</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C107" s="1">
+        <v>355</v>
+      </c>
+      <c r="D107" s="1">
+        <v>0.46652157618536499</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>356</v>
       </c>
       <c r="B108" s="1">
         <v>0.59315113941615405</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C108" s="1">
+        <v>356</v>
+      </c>
+      <c r="D108" s="1">
+        <v>0.461163049323981</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>357</v>
       </c>
       <c r="B109" s="1">
         <v>0.58614624036063101</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C109" s="1">
+        <v>357</v>
+      </c>
+      <c r="D109" s="1">
+        <v>0.455895576012602</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>358</v>
       </c>
       <c r="B110" s="1">
         <v>0.57926250999905704</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C110" s="1">
+        <v>358</v>
+      </c>
+      <c r="D110" s="1">
+        <v>0.45071719382262398</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>359</v>
       </c>
       <c r="B111" s="1">
         <v>0.57249729942014604</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C111" s="1">
+        <v>359</v>
+      </c>
+      <c r="D111" s="1">
+        <v>0.44562599087799898</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>360</v>
       </c>
       <c r="B112" s="1">
         <v>0.56584802877674101</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C112" s="1">
+        <v>360</v>
+      </c>
+      <c r="D112" s="1">
+        <v>0.44062010435150001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>361</v>
       </c>
       <c r="B113" s="1">
         <v>0.55931218520964399</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C113" s="1">
+        <v>361</v>
+      </c>
+      <c r="D113" s="1">
+        <v>0.43569771901145998</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>362</v>
       </c>
       <c r="B114" s="1">
         <v>0.55288732084180103</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C114" s="1">
+        <v>362</v>
+      </c>
+      <c r="D114" s="1">
+        <v>0.43085706581712901</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>363</v>
       </c>
       <c r="B115" s="1">
         <v>0.54657105084020496</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C115" s="1">
+        <v>363</v>
+      </c>
+      <c r="D115" s="1">
+        <v>0.42609642056081298</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>364</v>
       </c>
       <c r="B116" s="1">
         <v>0.54036105154298397</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C116" s="1">
+        <v>364</v>
+      </c>
+      <c r="D116" s="1">
+        <v>0.42141410255508599</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>365</v>
       </c>
       <c r="B117" s="1">
         <v>0.53425505864922995</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C117" s="1">
+        <v>365</v>
+      </c>
+      <c r="D117" s="1">
+        <v>0.41680847336341198</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>366</v>
       </c>
       <c r="B118" s="1">
         <v>0.52825086546925404</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C118" s="1">
+        <v>366</v>
+      </c>
+      <c r="D118" s="1">
+        <v>0.41227793557256098</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>367</v>
       </c>
       <c r="B119" s="1">
         <v>0.52234632123300395</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C119" s="1">
+        <v>367</v>
+      </c>
+      <c r="D119" s="1">
+        <v>0.40782093160532701</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>368</v>
       </c>
       <c r="B120" s="1">
         <v>0.51653932945452996</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C120" s="1">
+        <v>368</v>
+      </c>
+      <c r="D120" s="1">
+        <v>0.40343594257204402</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>369</v>
       </c>
       <c r="B121" s="1">
         <v>0.51082784635040801</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C121" s="1">
+        <v>369</v>
+      </c>
+      <c r="D121" s="1">
+        <v>0.39912148715950801</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>370</v>
       </c>
       <c r="B122" s="1">
         <v>0.50520987931016903</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C122" s="1">
+        <v>370</v>
+      </c>
+      <c r="D122" s="1">
+        <v>0.394876120555954</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>371</v>
       </c>
       <c r="B123" s="1">
         <v>0.49968348541681501</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C123" s="1">
+        <v>371</v>
+      </c>
+      <c r="D123" s="1">
+        <v>0.39069843341077898</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>372</v>
       </c>
       <c r="B124" s="1">
         <v>0.49424677001561801</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C124" s="1">
+        <v>372</v>
+      </c>
+      <c r="D124" s="1">
+        <v>0.38658705082776301</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>373</v>
       </c>
       <c r="B125" s="1">
         <v>0.48889788532944001</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C125" s="1">
+        <v>373</v>
+      </c>
+      <c r="D125" s="1">
+        <v>0.38254063139060501</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>374</v>
       </c>
       <c r="B126" s="1">
         <v>0.48363502911890299</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C126" s="1">
+        <v>374</v>
+      </c>
+      <c r="D126" s="1">
+        <v>0.37855786621959298</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>375</v>
       </c>
       <c r="B127" s="1">
         <v>0.47845644338579402</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C127" s="1">
+        <v>375</v>
+      </c>
+      <c r="D127" s="1">
+        <v>0.37463747805833603</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>376</v>
       </c>
       <c r="B128" s="1">
         <v>0.47336041311815003</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C128" s="1">
+        <v>376</v>
+      </c>
+      <c r="D128" s="1">
+        <v>0.37077822038945701</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>377</v>
       </c>
       <c r="B129" s="1">
         <v>0.46834526507554403</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C129" s="1">
+        <v>377</v>
+      </c>
+      <c r="D129" s="1">
+        <v>0.366978876578263</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>378</v>
       </c>
       <c r="B130" s="1">
         <v>0.46340936661313398</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C130" s="1">
+        <v>378</v>
+      </c>
+      <c r="D130" s="1">
+        <v>0.36323825904337398</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>379</v>
       </c>
       <c r="B131" s="1">
         <v>0.45855112454310498</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C131" s="1">
+        <v>379</v>
+      </c>
+      <c r="D131" s="1">
+        <v>0.359555208453393</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>380</v>
       </c>
       <c r="B132" s="1">
         <v>0.45376898403217902</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C132" s="1">
+        <v>380</v>
+      </c>
+      <c r="D132" s="1">
+        <v>0.355928592948692</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>381</v>
       </c>
       <c r="B133" s="1">
         <v>0.44906142753393302</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C133" s="1">
+        <v>381</v>
+      </c>
+      <c r="D133" s="1">
+        <v>0.35235730738745002</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>382</v>
       </c>
       <c r="B134" s="1">
         <v>0.44442697375468998</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C134" s="1">
+        <v>382</v>
+      </c>
+      <c r="D134" s="1">
+        <v>0.34884027261509198</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>383</v>
       </c>
       <c r="B135" s="1">
         <v>0.43986417665181898</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C135" s="1">
+        <v>383</v>
+      </c>
+      <c r="D135" s="1">
+        <v>0.345376434756339</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>384</v>
       </c>
       <c r="B136" s="1">
         <v>0.43537162446331601</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C136" s="1">
+        <v>384</v>
+      </c>
+      <c r="D136" s="1">
+        <v>0.34196476452906399</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>385</v>
       </c>
       <c r="B137" s="1">
         <v>0.43094793876757598</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C137" s="1">
+        <v>385</v>
+      </c>
+      <c r="D137" s="1">
+        <v>0.33860425657923698</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>386</v>
       </c>
       <c r="B138" s="1">
         <v>0.42659177357230899</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C138" s="1">
+        <v>386</v>
+      </c>
+      <c r="D138" s="1">
+        <v>0.33529392883621401</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>387</v>
       </c>
       <c r="B139" s="1">
         <v>0.42230181443160902</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C139" s="1">
+        <v>387</v>
+      </c>
+      <c r="D139" s="1">
+        <v>0.33203282188768901</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>388</v>
       </c>
       <c r="B140" s="1">
         <v>0.41807677759019501</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C140" s="1">
+        <v>388</v>
+      </c>
+      <c r="D140" s="1">
+        <v>0.32881999837363501</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>389</v>
       </c>
       <c r="B141" s="1">
         <v>0.41391540915389502</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C141" s="1">
+        <v>389</v>
+      </c>
+      <c r="D141" s="1">
+        <v>0.32565454239860597</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>390</v>
       </c>
       <c r="B142" s="1">
         <v>0.409816484285495</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C142" s="1">
+        <v>390</v>
+      </c>
+      <c r="D142" s="1">
+        <v>0.322535558961761</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>391</v>
       </c>
       <c r="B143" s="1">
         <v>0.40577880642506498</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C143" s="1">
+        <v>391</v>
+      </c>
+      <c r="D143" s="1">
+        <v>0.31946217340402799</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>392</v>
       </c>
       <c r="B144" s="1">
         <v>0.40180120653395301</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C144" s="1">
+        <v>392</v>
+      </c>
+      <c r="D144" s="1">
+        <v>0.31643353087183501</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>393</v>
       </c>
       <c r="B145" s="1">
         <v>0.397882542361645</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C145" s="1">
+        <v>393</v>
+      </c>
+      <c r="D145" s="1">
+        <v>0.31344879579684598</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>394</v>
       </c>
       <c r="B146" s="1">
         <v>0.39402169773471102</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C146" s="1">
+        <v>394</v>
+      </c>
+      <c r="D146" s="1">
+        <v>0.31050715139118201</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>395</v>
       </c>
       <c r="B147" s="1">
         <v>0.39021758186710498</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C147" s="1">
+        <v>395</v>
+      </c>
+      <c r="D147" s="1">
+        <v>0.307607799157602</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>396</v>
       </c>
       <c r="B148" s="1">
         <v>0.386469128691113</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C148" s="1">
+        <v>396</v>
+      </c>
+      <c r="D148" s="1">
+        <v>0.30474995841416103</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>397</v>
       </c>
       <c r="B149" s="1">
         <v>0.38277529620824002</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C149" s="1">
+        <v>397</v>
+      </c>
+      <c r="D149" s="1">
+        <v>0.30193286583286</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>398</v>
       </c>
       <c r="B150" s="1">
         <v>0.37913506585940399</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C150" s="1">
+        <v>398</v>
+      </c>
+      <c r="D150" s="1">
+        <v>0.29915577499183499</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>399</v>
       </c>
       <c r="B151" s="1">
         <v>0.37554744191376499</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C151" s="1">
+        <v>399</v>
+      </c>
+      <c r="D151" s="1">
+        <v>0.29641795594064102</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>400</v>
       </c>
       <c r="B152" s="1">
         <v>0.372011450875605</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C152" s="1">
+        <v>400</v>
+      </c>
+      <c r="D152" s="1">
+        <v>0.29371869477819701</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>401</v>
       </c>
       <c r="B153" s="1">
         <v>0.36852614090864599</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C153" s="1">
+        <v>401</v>
+      </c>
+      <c r="D153" s="1">
+        <v>0.291057293243003</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>402</v>
       </c>
       <c r="B154" s="1">
         <v>0.36509058127724803</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C154" s="1">
+        <v>402</v>
+      </c>
+      <c r="D154" s="1">
+        <v>0.28843306831520099</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>403</v>
       </c>
       <c r="B155" s="1">
         <v>0.361703861803925</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C155" s="1">
+        <v>403</v>
+      </c>
+      <c r="D155" s="1">
+        <v>0.28584535183012</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>404</v>
       </c>
       <c r="B156" s="1">
         <v>0.35836509234265701</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C156" s="1">
+        <v>404</v>
+      </c>
+      <c r="D156" s="1">
+        <v>0.28329349010293597</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>405</v>
       </c>
       <c r="B157" s="1">
         <v>0.35507340226748202</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C157" s="1">
+        <v>405</v>
+      </c>
+      <c r="D157" s="1">
+        <v>0.28077684356407501</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>406</v>
       </c>
       <c r="B158" s="1">
         <v>0.35182793997587902</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C158" s="1">
+        <v>406</v>
+      </c>
+      <c r="D158" s="1">
+        <v>0.27829478640502903</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>407</v>
       </c>
       <c r="B159" s="1">
         <v>0.34862787240645698</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C159" s="1">
+        <v>407</v>
+      </c>
+      <c r="D159" s="1">
+        <v>0.275846706234259</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>408</v>
       </c>
       <c r="B160" s="1">
         <v>0.345472384570497</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C160" s="1">
+        <v>408</v>
+      </c>
+      <c r="D160" s="1">
+        <v>0.27343200374284299</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>409</v>
       </c>
       <c r="B161" s="1">
         <v>0.34236067909690898</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C161" s="1">
+        <v>409</v>
+      </c>
+      <c r="D161" s="1">
+        <v>0.271050092379583</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>410</v>
       </c>
       <c r="B162" s="1">
         <v>0.33929197579016601</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C162" s="1">
+        <v>410</v>
+      </c>
+      <c r="D162" s="1">
+        <v>0.26870039803526602</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>411</v>
       </c>
       <c r="B163" s="1">
         <v>0.336265511200802</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C163" s="1">
+        <v>411</v>
+      </c>
+      <c r="D163" s="1">
+        <v>0.26638235873578198</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>412</v>
       </c>
       <c r="B164" s="1">
         <v>0.333280538208096</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C164" s="1">
+        <v>412</v>
+      </c>
+      <c r="D164" s="1">
+        <v>0.26409542434384098</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>413</v>
       </c>
       <c r="B165" s="1">
         <v>0.33033632561452497</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C165" s="1">
+        <v>413</v>
+      </c>
+      <c r="D165" s="1">
+        <v>0.26183905626899801</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>414</v>
       </c>
       <c r="B166" s="1">
         <v>0.32743215775164802</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C166" s="1">
+        <v>414</v>
+      </c>
+      <c r="D166" s="1">
+        <v>0.25961272718574702</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>415</v>
       </c>
       <c r="B167" s="1">
         <v>0.32456733409703897</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C167" s="1">
+        <v>415</v>
+      </c>
+      <c r="D167" s="1">
+        <v>0.25741592075942599</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>416</v>
       </c>
       <c r="B168" s="1">
         <v>0.32174116890193799</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C168" s="1">
+        <v>416</v>
+      </c>
+      <c r="D168" s="1">
+        <v>0.25524813137968499</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>417</v>
       </c>
       <c r="B169" s="1">
         <v>0.31895299082927397</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C169" s="1">
+        <v>417</v>
+      </c>
+      <c r="D169" s="1">
+        <v>0.25310886390130199</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>418</v>
       </c>
       <c r="B170" s="1">
         <v>0.316202142601751</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C170" s="1">
+        <v>418</v>
+      </c>
+      <c r="D170" s="1">
+        <v>0.25099763339209402</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>419</v>
       </c>
       <c r="B171" s="1">
         <v>0.31348798065967498</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C171" s="1">
+        <v>419</v>
+      </c>
+      <c r="D171" s="1">
+        <v>0.24891396488774001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>420</v>
       </c>
       <c r="B172" s="1">
         <v>0.31080987482822597</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C172" s="1">
+        <v>420</v>
+      </c>
+      <c r="D172" s="1">
+        <v>0.24685739315327601</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>421</v>
       </c>
       <c r="B173" s="1">
         <v>0.30816720799388497</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C173" s="1">
+        <v>421</v>
+      </c>
+      <c r="D173" s="1">
+        <v>0.24482746245106901</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>422</v>
       </c>
       <c r="B174" s="1">
         <v>0.30555937578972903</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C174" s="1">
+        <v>422</v>
+      </c>
+      <c r="D174" s="1">
+        <v>0.242823726315083</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>423</v>
       </c>
       <c r="B175" s="1">
         <v>0.30298578628933498</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C175" s="1">
+        <v>423</v>
+      </c>
+      <c r="D175" s="1">
+        <v>0.24084574733123601</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>424</v>
       </c>
       <c r="B176" s="1">
         <v>0.30044585970901999</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C176" s="1">
+        <v>424</v>
+      </c>
+      <c r="D176" s="1">
+        <v>0.23889309692365801</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>425</v>
       </c>
       <c r="B177" s="1">
         <v>0.29793902811815998</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C177" s="1">
+        <v>425</v>
+      </c>
+      <c r="D177" s="1">
+        <v>0.236965355146697</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>426</v>
       </c>
       <c r="B178" s="1">
         <v>0.29546473515736799</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C178" s="1">
+        <v>426</v>
+      </c>
+      <c r="D178" s="1">
+        <v>0.23506211048247599</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>427</v>
       </c>
       <c r="B179" s="1">
         <v>0.29302243576425702</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C179" s="1">
+        <v>427</v>
+      </c>
+      <c r="D179" s="1">
+        <v>0.233182959643845</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>428</v>
       </c>
       <c r="B180" s="1">
         <v>0.29061159590659102</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C180" s="1">
+        <v>428</v>
+      </c>
+      <c r="D180" s="1">
+        <v>0.23132750738257801</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>429</v>
       </c>
       <c r="B181" s="1">
         <v>0.28823169232258899</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C181" s="1">
+        <v>429</v>
+      </c>
+      <c r="D181" s="1">
+        <v>0.22949536630263301</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>430</v>
       </c>
       <c r="B182" s="1">
         <v>0.28588221226816601</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C182" s="1">
+        <v>430</v>
+      </c>
+      <c r="D182" s="1">
+        <v>0.22768615667835701</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>431</v>
       </c>
       <c r="B183" s="1">
         <v>0.28356265327091001</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C183" s="1">
+        <v>431</v>
+      </c>
+      <c r="D183" s="1">
+        <v>0.22589950627746799</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>432</v>
       </c>
       <c r="B184" s="1">
         <v>0.28127252289059601</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C184" s="1">
+        <v>432</v>
+      </c>
+      <c r="D184" s="1">
+        <v>0.22413505018867499</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>433</v>
       </c>
       <c r="B185" s="1">
         <v>0.27901133848602699</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C185" s="1">
+        <v>433</v>
+      </c>
+      <c r="D185" s="1">
+        <v>0.222392430653822</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>434</v>
       </c>
       <c r="B186" s="1">
         <v>0.276778626988051</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C186" s="1">
+        <v>434</v>
+      </c>
+      <c r="D186" s="1">
+        <v>0.220671296904388</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>435</v>
       </c>
       <c r="B187" s="1">
         <v>0.27457392467852398</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C187" s="1">
+        <v>435</v>
+      </c>
+      <c r="D187" s="1">
+        <v>0.21897130500224801</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>436</v>
       </c>
       <c r="B188" s="1">
         <v>0.27239677697509002</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C188" s="1">
+        <v>436</v>
+      </c>
+      <c r="D188" s="1">
+        <v>0.217292117684558</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>437</v>
       </c>
       <c r="B189" s="1">
         <v>0.27024673822157202</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C189" s="1">
+        <v>437</v>
+      </c>
+      <c r="D189" s="1">
+        <v>0.21563340421264399</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>438</v>
       </c>
       <c r="B190" s="1">
         <v>0.26812337148383703</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C190" s="1">
+        <v>438</v>
+      </c>
+      <c r="D190" s="1">
+        <v>0.21399484022477699</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>439</v>
       </c>
       <c r="B191" s="1">
         <v>0.266026248350961</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C191" s="1">
+        <v>439</v>
+      </c>
+      <c r="D191" s="1">
+        <v>0.21237610759273501</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>440</v>
       </c>
       <c r="B192" s="1">
         <v>0.26395494874154302</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C192" s="1">
+        <v>440</v>
+      </c>
+      <c r="D192" s="1">
+        <v>0.21077689428203</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>441</v>
       </c>
       <c r="B193" s="1">
         <v>0.26190906071501502</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C193" s="1">
+        <v>441</v>
+      </c>
+      <c r="D193" s="1">
+        <v>0.20919689421569701</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>442</v>
       </c>
       <c r="B194" s="1">
         <v>0.25988818028782101</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C194" s="1">
+        <v>442</v>
+      </c>
+      <c r="D194" s="1">
+        <v>0.20763580714155799</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>443</v>
       </c>
       <c r="B195" s="1">
         <v>0.25789191125430599</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C195" s="1">
+        <v>443</v>
+      </c>
+      <c r="D195" s="1">
+        <v>0.20609333850283501</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>444</v>
       </c>
       <c r="B196" s="1">
         <v>0.255919865012182</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C196" s="1">
+        <v>444</v>
+      </c>
+      <c r="D196" s="1">
+        <v>0.20456919931205</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>445</v>
       </c>
       <c r="B197" s="1">
         <v>0.253971660392458</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C197" s="1">
+        <v>445</v>
+      </c>
+      <c r="D197" s="1">
+        <v>0.203063106028086</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>446</v>
       </c>
       <c r="B198" s="1">
         <v>0.25204692349368202</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C198" s="1">
+        <v>446</v>
+      </c>
+      <c r="D198" s="1">
+        <v>0.20157478043634899</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>447</v>
       </c>
       <c r="B199" s="1">
         <v>0.250145287520394</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C199" s="1">
+        <v>447</v>
+      </c>
+      <c r="D199" s="1">
+        <v>0.20010394953192601</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>448</v>
       </c>
       <c r="B200" s="1">
         <v>0.248266392625657</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C200" s="1">
+        <v>448</v>
+      </c>
+      <c r="D200" s="1">
+        <v>0.19865034540565801</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>449</v>
       </c>
       <c r="B201" s="1">
         <v>0.24640988575755499</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C201" s="1">
+        <v>449</v>
+      </c>
+      <c r="D201" s="1">
+        <v>0.197213705133054</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>450</v>
       </c>
       <c r="B202" s="1">
         <v>0.244575420509552</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C202" s="1">
+        <v>450</v>
+      </c>
+      <c r="D202" s="1">
+        <v>0.19579377066595699</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>451</v>
       </c>
       <c r="B203" s="1">
         <v>0.24276265697459101</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C203" s="1">
+        <v>451</v>
+      </c>
+      <c r="D203" s="1">
+        <v>0.19439028872689601</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>452</v>
       </c>
       <c r="B204" s="1">
         <v>0.24097126160284199</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C204" s="1">
+        <v>452</v>
+      </c>
+      <c r="D204" s="1">
+        <v>0.19300301070603801</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>453</v>
       </c>
       <c r="B205" s="1">
         <v>0.23920090706299399</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C205" s="1">
+        <v>453</v>
+      </c>
+      <c r="D205" s="1">
+        <v>0.19163169256067999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>454</v>
       </c>
       <c r="B206" s="1">
         <v>0.237451272106975</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C206" s="1">
+        <v>454</v>
+      </c>
+      <c r="D206" s="1">
+        <v>0.190276094717202</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>455</v>
       </c>
       <c r="B207" s="1">
         <v>0.23572204143804101</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C207" s="1">
+        <v>455</v>
+      </c>
+      <c r="D207" s="1">
+        <v>0.188935981975419</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>456</v>
       </c>
       <c r="B208" s="1">
         <v>0.234012905582097</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C208" s="1">
+        <v>456</v>
+      </c>
+      <c r="D208" s="1">
+        <v>0.18761112341526301</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>457</v>
       </c>
       <c r="B209" s="1">
         <v>0.232323560762207</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C209" s="1">
+        <v>457</v>
+      </c>
+      <c r="D209" s="1">
+        <v>0.186301292305736</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>458</v>
       </c>
       <c r="B210" s="1">
         <v>0.23065370877615601</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C210" s="1">
+        <v>458</v>
+      </c>
+      <c r="D210" s="1">
+        <v>0.18500626601606801</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>459</v>
       </c>
       <c r="B211" s="1">
         <v>0.22900305687702999</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C211" s="1">
+        <v>459</v>
+      </c>
+      <c r="D211" s="1">
+        <v>0.18372582592901801</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>460</v>
       </c>
       <c r="B212" s="1">
         <v>0.227371317656689</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C212" s="1">
+        <v>460</v>
+      </c>
+      <c r="D212" s="1">
+        <v>0.18245975735626699</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>461</v>
       </c>
       <c r="B213" s="1">
         <v>0.22575820893208701</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C213" s="1">
+        <v>461</v>
+      </c>
+      <c r="D213" s="1">
+        <v>0.181207849455848</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>462</v>
       </c>
       <c r="B214" s="1">
         <v>0.22416345363433399</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C214" s="1">
+        <v>462</v>
+      </c>
+      <c r="D214" s="1">
+        <v>0.17996989515154099</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>463</v>
       </c>
       <c r="B215" s="1">
         <v>0.22258677970045501</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C215" s="1">
+        <v>463</v>
+      </c>
+      <c r="D215" s="1">
+        <v>0.17874569105420801</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>464</v>
       </c>
       <c r="B216" s="1">
         <v>0.22102791996773599</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C216" s="1">
+        <v>464</v>
+      </c>
+      <c r="D216" s="1">
+        <v>0.177535037384984</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>465</v>
       </c>
       <c r="B217" s="1">
         <v>0.219486612070634</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C217" s="1">
+        <v>465</v>
+      </c>
+      <c r="D217" s="1">
+        <v>0.17633773790031099</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>466</v>
       </c>
       <c r="B218" s="1">
         <v>0.21796259834013201</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C218" s="1">
+        <v>466</v>
+      </c>
+      <c r="D218" s="1">
+        <v>0.17515359981872999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>467</v>
       </c>
       <c r="B219" s="1">
         <v>0.21645562570551699</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C219" s="1">
+        <v>467</v>
+      </c>
+      <c r="D219" s="1">
+        <v>0.17398243374941</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>468</v>
       </c>
       <c r="B220" s="1">
         <v>0.21496544559848599</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C220" s="1">
+        <v>468</v>
+      </c>
+      <c r="D220" s="1">
+        <v>0.17282405362235601</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>469</v>
       </c>
       <c r="B221" s="1">
         <v>0.213491813859534</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C221" s="1">
+        <v>469</v>
+      </c>
+      <c r="D221" s="1">
+        <v>0.171678276620255</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>470</v>
       </c>
       <c r="B222" s="1">
         <v>0.21203449064655999</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C222" s="1">
+        <v>470</v>
+      </c>
+      <c r="D222" s="1">
+        <v>0.17054492311191999</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>471</v>
       </c>
       <c r="B223" s="1">
         <v>0.21059324034562699</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C223" s="1">
+        <v>471</v>
+      </c>
+      <c r="D223" s="1">
+        <v>0.169423816587283</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>472</v>
       </c>
       <c r="B224" s="1">
         <v>0.20916783148382601</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C224" s="1">
+        <v>472</v>
+      </c>
+      <c r="D224" s="1">
+        <v>0.16831478359390001</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>473</v>
       </c>
       <c r="B225" s="1">
         <v>0.20775803664418499</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C225" s="1">
+        <v>473</v>
+      </c>
+      <c r="D225" s="1">
+        <v>0.16721765367493699</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>474</v>
       </c>
       <c r="B226" s="1">
         <v>0.20636363238257199</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C226" s="1">
+        <v>474</v>
+      </c>
+      <c r="D226" s="1">
+        <v>0.16613225930858</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>475</v>
       </c>
       <c r="B227" s="1">
         <v>0.20498439914653199</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C227" s="1">
+        <v>475</v>
+      </c>
+      <c r="D227" s="1">
+        <v>0.16505843584884899</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>476</v>
       </c>
       <c r="B228" s="1">
         <v>0.20362012119602299</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C228" s="1">
+        <v>476</v>
+      </c>
+      <c r="D228" s="1">
+        <v>0.16399602146777401</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>477</v>
       </c>
       <c r="B229" s="1">
         <v>0.20227058652598201</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C229" s="1">
+        <v>477</v>
+      </c>
+      <c r="D229" s="1">
+        <v>0.162944857098896</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>478</v>
       </c>
       <c r="B230" s="1">
         <v>0.20093558679068901</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C230" s="1">
+        <v>478</v>
+      </c>
+      <c r="D230" s="1">
+        <v>0.16190478638205799</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>479</v>
       </c>
       <c r="B231" s="1">
         <v>0.19961491722987501</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C231" s="1">
+        <v>479</v>
+      </c>
+      <c r="D231" s="1">
+        <v>0.16087565560946099</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>480</v>
       </c>
       <c r="B232" s="1">
         <v>0.198308376596532</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C232" s="1">
+        <v>480</v>
+      </c>
+      <c r="D232" s="1">
+        <v>0.15985731367293901</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>481</v>
       </c>
       <c r="B233" s="1">
         <v>0.197015767086379</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C233" s="1">
+        <v>481</v>
+      </c>
+      <c r="D233" s="1">
+        <v>0.15884961201244299</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>482</v>
       </c>
       <c r="B234" s="1">
         <v>0.19573689426894</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C234" s="1">
+        <v>482</v>
+      </c>
+      <c r="D234" s="1">
+        <v>0.15785240456567301</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>483</v>
       </c>
       <c r="B235" s="1">
         <v>0.19447156702020299</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C235" s="1">
+        <v>483</v>
+      </c>
+      <c r="D235" s="1">
+        <v>0.15686554771885999</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>484</v>
       </c>
       <c r="B236" s="1">
         <v>0.19321959745679901</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C236" s="1">
+        <v>484</v>
+      </c>
+      <c r="D236" s="1">
+        <v>0.15588890025865301</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>485</v>
       </c>
       <c r="B237" s="1">
         <v>0.19198080087168701</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C237" s="1">
+        <v>485</v>
+      </c>
+      <c r="D237" s="1">
+        <v>0.15492232332507699</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>486</v>
       </c>
       <c r="B238" s="1">
         <v>0.19075499567128901</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C238" s="1">
+        <v>486</v>
+      </c>
+      <c r="D238" s="1">
+        <v>0.153965680365552</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>487</v>
       </c>
       <c r="B239" s="1">
         <v>0.189542003314045</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C239" s="1">
+        <v>487</v>
+      </c>
+      <c r="D239" s="1">
+        <v>0.15301883708993799</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>488</v>
       </c>
       <c r="B240" s="1">
         <v>0.18834164825034699</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C240" s="1">
+        <v>488</v>
+      </c>
+      <c r="D240" s="1">
+        <v>0.15208166142656901</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>489</v>
       </c>
       <c r="B241" s="1">
         <v>0.18715375786383101</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C241" s="1">
+        <v>489</v>
+      </c>
+      <c r="D241" s="1">
+        <v>0.151154023479281</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>490</v>
       </c>
       <c r="B242" s="1">
         <v>0.185978162413973</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C242" s="1">
+        <v>490</v>
+      </c>
+      <c r="D242" s="1">
+        <v>0.150235795485371</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>491</v>
       </c>
       <c r="B243" s="1">
         <v>0.18481469497997199</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C243" s="1">
+        <v>491</v>
+      </c>
+      <c r="D243" s="1">
+        <v>0.149326851774498</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>492</v>
       </c>
       <c r="B244" s="1">
         <v>0.183663191405882</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C244" s="1">
+        <v>492</v>
+      </c>
+      <c r="D244" s="1">
+        <v>0.14842706872848299</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>493</v>
       </c>
       <c r="B245" s="1">
         <v>0.18252349024695899</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C245" s="1">
+        <v>493</v>
+      </c>
+      <c r="D245" s="1">
+        <v>0.147536324741988</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>494</v>
       </c>
       <c r="B246" s="1">
         <v>0.18139543271720299</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C246" s="1">
+        <v>494</v>
+      </c>
+      <c r="D246" s="1">
+        <v>0.14665450018406501</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>495</v>
       </c>
       <c r="B247" s="1">
         <v>0.18027886263804599</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C247" s="1">
+        <v>495</v>
+      </c>
+      <c r="D247" s="1">
+        <v>0.14578147736053501</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>496</v>
       </c>
       <c r="B248" s="1">
         <v>0.17917362638818399</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C248" s="1">
+        <v>496</v>
+      </c>
+      <c r="D248" s="1">
+        <v>0.14491714047718601</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>497</v>
       </c>
       <c r="B249" s="1">
         <v>0.17807957285450199</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C249" s="1">
+        <v>497</v>
+      </c>
+      <c r="D249" s="1">
+        <v>0.14406137560378099</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>498</v>
       </c>
       <c r="B250" s="1">
         <v>0.17699655338407599</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C250" s="1">
+        <v>498</v>
+      </c>
+      <c r="D250" s="1">
+        <v>0.14321407063883099</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>499</v>
       </c>
       <c r="B251" s="1">
         <v>0.175924421737225</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C251" s="1">
+        <v>499</v>
+      </c>
+      <c r="D251" s="1">
+        <v>0.14237511527513699</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>500</v>
       </c>
       <c r="B252" s="1">
         <v>0.17486303404158099</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C252" s="1">
+        <v>500</v>
+      </c>
+      <c r="D252" s="1">
+        <v>0.14154440096607299</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>501</v>
       </c>
       <c r="B253" s="1">
         <v>0.173812248747164</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C253" s="1">
+        <v>501</v>
+      </c>
+      <c r="D253" s="1">
+        <v>0.140721820892592</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>502</v>
       </c>
       <c r="B254" s="1">
         <v>0.17277192658242599</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C254" s="1">
+        <v>502</v>
+      </c>
+      <c r="D254" s="1">
+        <v>0.13990726993093899</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>503</v>
       </c>
       <c r="B255" s="1">
         <v>0.17174193051124301</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C255" s="1">
+        <v>503</v>
+      </c>
+      <c r="D255" s="1">
+        <v>0.13910064462105301</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>504</v>
       </c>
       <c r="B256" s="1">
         <v>0.170722125690841</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C256" s="1">
+        <v>504</v>
+      </c>
+      <c r="D256" s="1">
+        <v>0.13830184313564101</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>505</v>
       </c>
       <c r="B257" s="1">
         <v>0.16971237943061701</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C257" s="1">
+        <v>505</v>
+      </c>
+      <c r="D257" s="1">
+        <v>0.13751076524991801</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>506</v>
       </c>
       <c r="B258" s="1">
         <v>0.16871256115185301</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C258" s="1">
+        <v>506</v>
+      </c>
+      <c r="D258" s="1">
+        <v>0.13672731231197399</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>507</v>
       </c>
       <c r="B259" s="1">
         <v>0.16772254234828099</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C259" s="1">
+        <v>507</v>
+      </c>
+      <c r="D259" s="1">
+        <v>0.135951387213778</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>508</v>
       </c>
       <c r="B260" s="1">
         <v>0.166742196547499</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C260" s="1">
+        <v>508</v>
+      </c>
+      <c r="D260" s="1">
+        <v>0.13518289436279199</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>509</v>
       </c>
       <c r="B261" s="1">
         <v>0.16577139927319801</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C261" s="1">
+        <v>509</v>
+      </c>
+      <c r="D261" s="1">
+        <v>0.134421739654175</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>510</v>
       </c>
       <c r="B262" s="1">
         <v>0.16481002800820099</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C262" s="1">
+        <v>510</v>
+      </c>
+      <c r="D262" s="1">
+        <v>0.13366783044357999</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>511</v>
       </c>
       <c r="B263" s="1">
         <v>0.163857962158273</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C263" s="1">
+        <v>511</v>
+      </c>
+      <c r="D263" s="1">
+        <v>0.13292107552051299</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>512</v>
       </c>
       <c r="B264" s="1">
         <v>0.16291508301670099</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C264" s="1">
+        <v>512</v>
+      </c>
+      <c r="D264" s="1">
+        <v>0.132181385082248</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>513</v>
       </c>
       <c r="B265" s="1">
         <v>0.16198127372962001</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C265" s="1">
+        <v>513</v>
+      </c>
+      <c r="D265" s="1">
+        <v>0.131448670708288</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>514</v>
       </c>
       <c r="B266" s="1">
         <v>0.16105641926206399</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C266" s="1">
+        <v>514</v>
+      </c>
+      <c r="D266" s="1">
+        <v>0.130722845335356</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>515</v>
       </c>
       <c r="B267" s="1">
         <v>0.16014040636472801</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C267" s="1">
+        <v>515</v>
+      </c>
+      <c r="D267" s="1">
+        <v>0.1300038232329</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>516</v>
       </c>
       <c r="B268" s="1">
         <v>0.15923312354142999</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C268" s="1">
+        <v>516</v>
+      </c>
+      <c r="D268" s="1">
+        <v>0.12929151997910601</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>517</v>
       </c>
       <c r="B269" s="1">
         <v>0.158334461017237</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C269" s="1">
+        <v>517</v>
+      </c>
+      <c r="D269" s="1">
+        <v>0.128585852437407</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>518</v>
       </c>
       <c r="B270" s="1">
         <v>0.15744431070727</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C270" s="1">
+        <v>518</v>
+      </c>
+      <c r="D270" s="1">
+        <v>0.12788673873347001</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>519</v>
       </c>
       <c r="B271" s="1">
         <v>0.156562566186145</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C271" s="1">
+        <v>519</v>
+      </c>
+      <c r="D271" s="1">
+        <v>0.12719409823265801</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>520</v>
       </c>
       <c r="B272" s="1">
         <v>0.15568912265804699</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C272" s="1">
+        <v>520</v>
+      </c>
+      <c r="D272" s="1">
+        <v>0.12650785151795099</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>521</v>
       </c>
       <c r="B273" s="1">
         <v>0.154823876927423</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C273" s="1">
+        <v>521</v>
+      </c>
+      <c r="D273" s="1">
+        <v>0.12582792036832099</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>522</v>
       </c>
       <c r="B274" s="1">
         <v>0.153966727370275</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C274" s="1">
+        <v>522</v>
+      </c>
+      <c r="D274" s="1">
+        <v>0.12515422773753601</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>523</v>
       </c>
       <c r="B275" s="1">
         <v>0.15311757390604699</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C275" s="1">
+        <v>523</v>
+      </c>
+      <c r="D275" s="1">
+        <v>0.124486697733407</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>524</v>
       </c>
       <c r="B276" s="1">
         <v>0.15227631797008101</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C276" s="1">
+        <v>524</v>
+      </c>
+      <c r="D276" s="1">
+        <v>0.123825255597447</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>525</v>
       </c>
       <c r="B277" s="1">
         <v>0.15144286248663699</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C277" s="1">
+        <v>525</v>
+      </c>
+      <c r="D277" s="1">
+        <v>0.123169827684943</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>526</v>
       </c>
       <c r="B278" s="1">
         <v>0.15061711184246299</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C278" s="1">
+        <v>526</v>
+      </c>
+      <c r="D278" s="1">
+        <v>0.12252034144542701</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>527</v>
       </c>
       <c r="B279" s="1">
         <v>0.14979897186090599</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C279" s="1">
+        <v>527</v>
+      </c>
+      <c r="D279" s="1">
+        <v>0.121876725403538</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>528</v>
       </c>
       <c r="B280" s="1">
         <v>0.148988349776534</v>
       </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C280" s="1">
+        <v>528</v>
+      </c>
+      <c r="D280" s="1">
+        <v>0.121238909140276</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>529</v>
       </c>
       <c r="B281" s="1">
         <v>0.148185154210287</v>
       </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C281" s="1">
+        <v>529</v>
+      </c>
+      <c r="D281" s="1">
+        <v>0.120606823274618</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>530</v>
       </c>
       <c r="B282" s="1">
         <v>0.14738929514511701</v>
       </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C282" s="1">
+        <v>530</v>
+      </c>
+      <c r="D282" s="1">
+        <v>0.11998039944550799</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>531</v>
       </c>
       <c r="B283" s="1">
         <v>0.146600683902121</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C283" s="1">
+        <v>531</v>
+      </c>
+      <c r="D283" s="1">
+        <v>0.11935957029420501</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>532</v>
       </c>
       <c r="B284" s="1">
         <v>0.145819233117158</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C284" s="1">
+        <v>532</v>
+      </c>
+      <c r="D284" s="1">
+        <v>0.118744269446975</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>533</v>
       </c>
       <c r="B285" s="1">
         <v>0.145044856717921</v>
       </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C285" s="1">
+        <v>533</v>
+      </c>
+      <c r="D285" s="1">
+        <v>0.11813443149813301</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>534</v>
       </c>
       <c r="B286" s="1">
         <v>0.14427746990147999</v>
       </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C286" s="1">
+        <v>534</v>
+      </c>
+      <c r="D286" s="1">
+        <v>0.117529991993414</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>535</v>
       </c>
       <c r="B287" s="1">
         <v>0.14351698911226399</v>
       </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C287" s="1">
+        <v>535</v>
+      </c>
+      <c r="D287" s="1">
+        <v>0.116930887413674</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>536</v>
       </c>
       <c r="B288" s="1">
         <v>0.142763332020479</v>
       </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C288" s="1">
+        <v>536</v>
+      </c>
+      <c r="D288" s="1">
+        <v>0.11633705515890901</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>537</v>
       </c>
       <c r="B289" s="1">
         <v>0.142016417500962</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C289" s="1">
+        <v>537</v>
+      </c>
+      <c r="D289" s="1">
+        <v>0.115748433532585</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>538</v>
       </c>
       <c r="B290" s="1">
         <v>0.141276165612441</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C290" s="1">
+        <v>538</v>
+      </c>
+      <c r="D290" s="1">
+        <v>0.115164961726284</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>539</v>
       </c>
       <c r="B291" s="1">
         <v>0.14054249757721199</v>
       </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C291" s="1">
+        <v>539</v>
+      </c>
+      <c r="D291" s="1">
+        <v>0.11458657980463401</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>540</v>
       </c>
       <c r="B292" s="1">
         <v>0.13981533576121299</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C292" s="1">
+        <v>540</v>
+      </c>
+      <c r="D292" s="1">
+        <v>0.114013228690546</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>541</v>
       </c>
       <c r="B293" s="1">
         <v>0.139094603654488</v>
       </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C293" s="1">
+        <v>541</v>
+      </c>
+      <c r="D293" s="1">
+        <v>0.113444850150727</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>542</v>
       </c>
       <c r="B294" s="1">
         <v>0.138380225852031</v>
       </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C294" s="1">
+        <v>542</v>
+      </c>
+      <c r="D294" s="1">
+        <v>0.11288138678147799</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>543</v>
       </c>
       <c r="B295" s="1">
         <v>0.137672128035012</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C295" s="1">
+        <v>543</v>
+      </c>
+      <c r="D295" s="1">
+        <v>0.112322781994765</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>544</v>
       </c>
       <c r="B296" s="1">
         <v>0.13697023695235599</v>
       </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C296" s="1">
+        <v>544</v>
+      </c>
+      <c r="D296" s="1">
+        <v>0.11176898000456199</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>545</v>
       </c>
       <c r="B297" s="1">
         <v>0.13627448040269</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C297" s="1">
+        <v>545</v>
+      </c>
+      <c r="D297" s="1">
+        <v>0.111219925813445</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>546</v>
       </c>
       <c r="B298" s="1">
         <v>0.135584787216632</v>
       </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C298" s="1">
+        <v>546</v>
+      </c>
+      <c r="D298" s="1">
+        <v>0.110675565199457</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>547</v>
       </c>
       <c r="B299" s="1">
         <v>0.134901087239433</v>
       </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C299" s="1">
+        <v>547</v>
+      </c>
+      <c r="D299" s="1">
+        <v>0.110135844703213</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>548</v>
       </c>
       <c r="B300" s="1">
         <v>0.134223311313937</v>
       </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C300" s="1">
+        <v>548</v>
+      </c>
+      <c r="D300" s="1">
+        <v>0.109600711615256</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>549</v>
       </c>
       <c r="B301" s="1">
         <v>0.13355139126388499</v>
       </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C301" s="1">
+        <v>549</v>
+      </c>
+      <c r="D301" s="1">
+        <v>0.109070113963654</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>550</v>
       </c>
       <c r="B302" s="1">
         <v>0.132885259877528</v>
       </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C302" s="1">
+        <v>550</v>
+      </c>
+      <c r="D302" s="1">
+        <v>0.108544000501826</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>551</v>
       </c>
       <c r="B303" s="1">
         <v>0.13222485089156</v>
       </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C303" s="1">
+        <v>551</v>
+      </c>
+      <c r="D303" s="1">
+        <v>0.108022320696608</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>552</v>
       </c>
       <c r="B304" s="1">
         <v>0.13157009897535399</v>
       </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C304" s="1">
+        <v>552</v>
+      </c>
+      <c r="D304" s="1">
+        <v>0.107505024716535</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>553</v>
       </c>
       <c r="B305" s="1">
         <v>0.13092093971550101</v>
       </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C305" s="1">
+        <v>553</v>
+      </c>
+      <c r="D305" s="1">
+        <v>0.10699206342035</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>554</v>
       </c>
       <c r="B306" s="1">
         <v>0.13027730960063899</v>
       </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C306" s="1">
+        <v>554</v>
+      </c>
+      <c r="D306" s="1">
+        <v>0.106483388345727</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>555</v>
       </c>
       <c r="B307" s="1">
         <v>0.129639146006572</v>
       </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C307" s="1">
+        <v>555</v>
+      </c>
+      <c r="D307" s="1">
+        <v>0.105978951698203</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>556</v>
       </c>
       <c r="B308" s="1">
         <v>0.12900638718166901</v>
       </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C308" s="1">
+        <v>556</v>
+      </c>
+      <c r="D308" s="1">
+        <v>0.105478706340318</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>557</v>
       </c>
       <c r="B309" s="1">
         <v>0.12837897223254399</v>
       </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C309" s="1">
+        <v>557</v>
+      </c>
+      <c r="D309" s="1">
+        <v>0.104982605780963</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>558</v>
       </c>
       <c r="B310" s="1">
         <v>0.127756841109995</v>
       </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C310" s="1">
+        <v>558</v>
+      </c>
+      <c r="D310" s="1">
+        <v>0.104490604164918</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>559</v>
       </c>
       <c r="B311" s="1">
         <v>0.127139934595213</v>
       </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C311" s="1">
+        <v>559</v>
+      </c>
+      <c r="D311" s="1">
+        <v>0.10400265626258801</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>560</v>
       </c>
       <c r="B312" s="1">
         <v>0.126528194286254</v>
       </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C312" s="1">
+        <v>560</v>
+      </c>
+      <c r="D312" s="1">
+        <v>0.10351871745992899</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>561</v>
       </c>
       <c r="B313" s="1">
         <v>0.12592156258475101</v>
       </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C313" s="1">
+        <v>561</v>
+      </c>
+      <c r="D313" s="1">
+        <v>0.10303874374856301</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>562</v>
       </c>
       <c r="B314" s="1">
         <v>0.12531998268288699</v>
       </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C314" s="1">
+        <v>562</v>
+      </c>
+      <c r="D314" s="1">
+        <v>0.10256269171606699</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>563</v>
       </c>
       <c r="B315" s="1">
         <v>0.12472339855060199</v>
       </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C315" s="1">
+        <v>563</v>
+      </c>
+      <c r="D315" s="1">
+        <v>0.102090518536452</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>564</v>
       </c>
       <c r="B316" s="1">
         <v>0.124131754923039</v>
       </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C316" s="1">
+        <v>564</v>
+      </c>
+      <c r="D316" s="1">
+        <v>0.101622181960804</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>565</v>
       </c>
       <c r="B317" s="1">
         <v>0.123544997288223</v>
       </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C317" s="1">
+        <v>565</v>
+      </c>
+      <c r="D317" s="1">
+        <v>0.101157640308108</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>566</v>
       </c>
       <c r="B318" s="1">
         <v>0.12296307187497001</v>
       </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C318" s="1">
+        <v>566</v>
+      </c>
+      <c r="D318" s="1">
+        <v>0.100696852456234</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>567</v>
       </c>
       <c r="B319" s="1">
         <v>0.122385925641011</v>
       </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C319" s="1">
+        <v>567</v>
+      </c>
+      <c r="D319" s="1">
+        <v>0.100239777833081</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>568</v>
       </c>
       <c r="B320" s="1">
         <v>0.121813506261345</v>
       </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C320" s="1">
+        <v>568</v>
+      </c>
+      <c r="D320" s="1">
+        <v>9.9786376407899294E-2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>569</v>
       </c>
       <c r="B321" s="1">
         <v>0.121245762116794</v>
       </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C321" s="1">
+        <v>569</v>
+      </c>
+      <c r="D321" s="1">
+        <v>9.9336608682750099E-2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>570</v>
       </c>
       <c r="B322" s="1">
         <v>0.12068264228278</v>
       </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C322" s="1">
+        <v>570</v>
+      </c>
+      <c r="D322" s="1">
+        <v>9.8890435684134206E-2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>571</v>
       </c>
       <c r="B323" s="1">
         <v>0.12012409651829099</v>
       </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C323" s="1">
+        <v>571</v>
+      </c>
+      <c r="D323" s="1">
+        <v>9.8447818954764593E-2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>572</v>
       </c>
       <c r="B324" s="1">
         <v>0.11957007525506499</v>
       </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C324" s="1">
+        <v>572</v>
+      </c>
+      <c r="D324" s="1">
+        <v>9.8008720545489106E-2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>573</v>
       </c>
       <c r="B325" s="1">
         <v>0.119020529586958</v>
       </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C325" s="1">
+        <v>573</v>
+      </c>
+      <c r="D325" s="1">
+        <v>9.7573103007359205E-2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>574</v>
       </c>
       <c r="B326" s="1">
         <v>0.11847541125951</v>
       </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C326" s="1">
+        <v>574</v>
+      </c>
+      <c r="D326" s="1">
+        <v>9.71409293838391E-2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>575</v>
       </c>
       <c r="B327" s="1">
         <v>0.11793467265969899</v>
       </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C327" s="1">
+        <v>575</v>
+      </c>
+      <c r="D327" s="1">
+        <v>9.6712163203155094E-2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>576</v>
       </c>
       <c r="B328" s="1">
         <v>0.11739826680587601</v>
       </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C328" s="1">
+        <v>576</v>
+      </c>
+      <c r="D328" s="1">
+        <v>9.6286768470782297E-2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>577</v>
       </c>
       <c r="B329" s="1">
         <v>0.116866147337891</v>
       </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C329" s="1">
+        <v>577</v>
+      </c>
+      <c r="D329" s="1">
+        <v>9.5864709662062703E-2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>578</v>
       </c>
       <c r="B330" s="1">
         <v>0.11633826850738201</v>
       </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C330" s="1">
+        <v>578</v>
+      </c>
+      <c r="D330" s="1">
+        <v>9.5445951714957594E-2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>579</v>
       </c>
       <c r="B331" s="1">
         <v>0.11581458516825199</v>
       </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C331" s="1">
+        <v>579</v>
+      </c>
+      <c r="D331" s="1">
+        <v>9.5030460022925298E-2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>580</v>
       </c>
       <c r="B332" s="1">
         <v>0.115295052767307</v>
       </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C332" s="1">
+        <v>580</v>
+      </c>
+      <c r="D332" s="1">
+        <v>9.4618200427926999E-2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>581</v>
       </c>
       <c r="B333" s="1">
         <v>0.114779627335066</v>
       </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C333" s="1">
+        <v>581</v>
+      </c>
+      <c r="D333" s="1">
+        <v>9.4209139213555199E-2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>582</v>
       </c>
       <c r="B334" s="1">
         <v>0.114268265476727</v>
       </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C334" s="1">
+        <v>582</v>
+      </c>
+      <c r="D334" s="1">
+        <v>9.3803243098282904E-2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>583</v>
       </c>
       <c r="B335" s="1">
         <v>0.11376092436330699</v>
       </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C335" s="1">
+        <v>583</v>
+      </c>
+      <c r="D335" s="1">
+        <v>9.3400479228831296E-2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>584</v>
       </c>
       <c r="B336" s="1">
         <v>0.11325756172292401</v>
       </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C336" s="1">
+        <v>584</v>
+      </c>
+      <c r="D336" s="1">
+        <v>9.3000815173654799E-2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>585</v>
       </c>
       <c r="B337" s="1">
         <v>0.11275813583224201</v>
       </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C337" s="1">
+        <v>585</v>
+      </c>
+      <c r="D337" s="1">
+        <v>9.2604218916538097E-2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>586</v>
       </c>
       <c r="B338" s="1">
         <v>0.11226260550806599</v>
       </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C338" s="1">
+        <v>586</v>
+      </c>
+      <c r="D338" s="1">
+        <v>9.2210658850306895E-2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>587</v>
       </c>
       <c r="B339" s="1">
         <v>0.111770930099082</v>
       </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C339" s="1">
+        <v>587</v>
+      </c>
+      <c r="D339" s="1">
+        <v>9.1820103770646297E-2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>588</v>
       </c>
       <c r="B340" s="1">
         <v>0.111283069477743</v>
       </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C340" s="1">
+        <v>588</v>
+      </c>
+      <c r="D340" s="1">
+        <v>9.1432522870027899E-2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>589</v>
       </c>
       <c r="B341" s="1">
         <v>0.110798984032299</v>
       </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C341" s="1">
+        <v>589</v>
+      </c>
+      <c r="D341" s="1">
+        <v>9.1047885731741302E-2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>590</v>
       </c>
       <c r="B342" s="1">
         <v>0.11031863465896299</v>
       </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C342" s="1">
+        <v>590</v>
+      </c>
+      <c r="D342" s="1">
+        <v>9.0666162324029506E-2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>591</v>
       </c>
       <c r="B343" s="1">
         <v>0.10984198275422</v>
       </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C343" s="1">
+        <v>591</v>
+      </c>
+      <c r="D343" s="1">
+        <v>9.0287322994324001E-2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>592</v>
       </c>
       <c r="B344" s="1">
         <v>0.109368990207256</v>
       </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C344" s="1">
+        <v>592</v>
+      </c>
+      <c r="D344" s="1">
+        <v>8.9911338463582E-2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>593</v>
       </c>
       <c r="B345" s="1">
         <v>0.108899619392539</v>
       </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C345" s="1">
+        <v>593</v>
+      </c>
+      <c r="D345" s="1">
+        <v>8.9538179820716796E-2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>594</v>
       </c>
       <c r="B346" s="1">
         <v>0.108433833162509</v>
       </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C346" s="1">
+        <v>594</v>
+      </c>
+      <c r="D346" s="1">
+        <v>8.9167818517127601E-2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>595</v>
       </c>
       <c r="B347" s="1">
         <v>0.107971594840404</v>
       </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C347" s="1">
+        <v>595</v>
+      </c>
+      <c r="D347" s="1">
+        <v>8.8800226361320303E-2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>596</v>
       </c>
       <c r="B348" s="1">
         <v>0.107512868213212</v>
       </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C348" s="1">
+        <v>596</v>
+      </c>
+      <c r="D348" s="1">
+        <v>8.8435375513620296E-2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>597</v>
       </c>
       <c r="B349" s="1">
         <v>0.107057617524735</v>
       </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C349" s="1">
+        <v>597</v>
+      </c>
+      <c r="D349" s="1">
+        <v>8.8073238480977298E-2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>598</v>
       </c>
       <c r="B350" s="1">
         <v>0.106605807468783</v>
       </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C350" s="1">
+        <v>598</v>
+      </c>
+      <c r="D350" s="1">
+        <v>8.7713788111855304E-2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>599</v>
       </c>
       <c r="B351" s="1">
         <v>0.10615740318247199</v>
+      </c>
+      <c r="C351" s="1">
+        <v>599</v>
+      </c>
+      <c r="D351" s="1">
+        <v>8.7356997591212002E-2</v>
       </c>
     </row>
   </sheetData>
